--- a/tools/data.xlsx
+++ b/tools/data.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331E0FB-7C75-4F07-A38C-4CCF9D8202E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD3650E-362F-4A26-BCD6-800CD173A75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dataList" sheetId="6" r:id="rId1"/>
+    <sheet name="objList" sheetId="6" r:id="rId1"/>
+    <sheet name="arrlist" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +53,124 @@
   <si>
     <t>[f]|名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a;b;c;d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;5</t>
+  </si>
+  <si>
+    <t>1;2;3;6</t>
+  </si>
+  <si>
+    <t>1;2;3;7</t>
+  </si>
+  <si>
+    <t>1;2;3;8</t>
+  </si>
+  <si>
+    <t>1;2;3;9</t>
+  </si>
+  <si>
+    <t>1;2;3;10</t>
+  </si>
+  <si>
+    <t>1;2;3;11</t>
+  </si>
+  <si>
+    <t>1;2;3;12</t>
+  </si>
+  <si>
+    <t>1;2;3;13</t>
+  </si>
+  <si>
+    <t>1;2;3;14</t>
+  </si>
+  <si>
+    <t>1;2;3;15</t>
+  </si>
+  <si>
+    <t>1;2;3;16</t>
+  </si>
+  <si>
+    <t>1;2;3;17</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5;2.5;3.6</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.7</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.8</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.9</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.10</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.11</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.12</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.13</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.14</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.15</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.16</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.17</t>
+  </si>
+  <si>
+    <t>1.5;2.5;3.18</t>
   </si>
 </sst>
 </file>
@@ -403,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1B4D0A-8275-4111-B271-BF33983A3B96}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -442,19 +561,299 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -462,4 +861,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5E4F88-5F0A-4DB1-BD56-FCBD46664D92}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>14.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tools/data.xlsx
+++ b/tools/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD3650E-362F-4A26-BCD6-800CD173A75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96E760E-7FA9-4360-98D2-16AC36C85A35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="objList" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,54 @@
   </si>
   <si>
     <t>1.5;2.5;3.18</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -524,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1B4D0A-8275-4111-B271-BF33983A3B96}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,7 +666,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -638,7 +686,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -658,7 +706,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -678,7 +726,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -698,7 +746,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -718,7 +766,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -738,7 +786,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -758,7 +806,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -778,7 +826,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -798,7 +846,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -818,7 +866,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -838,7 +886,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -867,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5E4F88-5F0A-4DB1-BD56-FCBD46664D92}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -955,7 +1003,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -975,7 +1023,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -995,7 +1043,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1015,7 +1063,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1035,7 +1083,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1055,7 +1103,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1075,7 +1123,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -1095,7 +1143,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1115,7 +1163,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1135,7 +1183,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1155,7 +1203,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -1175,7 +1223,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>14</v>
